--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_36ha_100ha_10%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_36ha_100ha_10%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -1777,28 +1777,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>127.9695545318226</v>
+        <v>152.4460966137502</v>
       </c>
       <c r="AB2" t="n">
-        <v>175.0935901286612</v>
+        <v>208.583474833964</v>
       </c>
       <c r="AC2" t="n">
-        <v>158.3829036322279</v>
+        <v>188.6765607446156</v>
       </c>
       <c r="AD2" t="n">
-        <v>127969.5545318226</v>
+        <v>152446.0966137502</v>
       </c>
       <c r="AE2" t="n">
-        <v>175093.5901286612</v>
+        <v>208583.474833964</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.343478510979317e-06</v>
+        <v>6.186310616229936e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.545717592592593</v>
       </c>
       <c r="AH2" t="n">
-        <v>158382.9036322279</v>
+        <v>188676.5607446156</v>
       </c>
     </row>
     <row r="3">
@@ -1883,28 +1883,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>85.44987131721047</v>
+        <v>109.6704803439743</v>
       </c>
       <c r="AB3" t="n">
-        <v>116.9162837184246</v>
+        <v>150.0559895266828</v>
       </c>
       <c r="AC3" t="n">
-        <v>105.7579576934032</v>
+        <v>135.7348564912011</v>
       </c>
       <c r="AD3" t="n">
-        <v>85449.87131721046</v>
+        <v>109670.4803439743</v>
       </c>
       <c r="AE3" t="n">
-        <v>116916.2837184246</v>
+        <v>150055.9895266828</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.528398514194927e-06</v>
+        <v>8.378722851333212e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.356481481481481</v>
       </c>
       <c r="AH3" t="n">
-        <v>105757.9576934032</v>
+        <v>135734.8564912011</v>
       </c>
     </row>
     <row r="4">
@@ -1989,28 +1989,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>82.55062308679678</v>
+        <v>94.74631320902584</v>
       </c>
       <c r="AB4" t="n">
-        <v>112.9494043837698</v>
+        <v>129.6360856448707</v>
       </c>
       <c r="AC4" t="n">
-        <v>102.1696717548966</v>
+        <v>117.2637995763476</v>
       </c>
       <c r="AD4" t="n">
-        <v>82550.62308679678</v>
+        <v>94746.31320902584</v>
       </c>
       <c r="AE4" t="n">
-        <v>112949.4043837698</v>
+        <v>129636.0856448707</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.688001913262928e-06</v>
+        <v>8.674030926081852e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.24074074074074</v>
       </c>
       <c r="AH4" t="n">
-        <v>102169.6717548966</v>
+        <v>117263.7995763475</v>
       </c>
     </row>
   </sheetData>
@@ -2286,28 +2286,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>94.1258187348372</v>
+        <v>117.6532430002713</v>
       </c>
       <c r="AB2" t="n">
-        <v>128.787097731002</v>
+        <v>160.9783575676561</v>
       </c>
       <c r="AC2" t="n">
-        <v>116.4958378774162</v>
+        <v>145.6148090559873</v>
       </c>
       <c r="AD2" t="n">
-        <v>94125.8187348372</v>
+        <v>117653.2430002714</v>
       </c>
       <c r="AE2" t="n">
-        <v>128787.097731002</v>
+        <v>160978.3575676561</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.993601769923435e-06</v>
+        <v>7.612421315614379e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.935185185185185</v>
       </c>
       <c r="AH2" t="n">
-        <v>116495.8378774162</v>
+        <v>145614.8090559873</v>
       </c>
     </row>
     <row r="3">
@@ -2392,28 +2392,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>78.51401271234327</v>
+        <v>90.27781435361139</v>
       </c>
       <c r="AB3" t="n">
-        <v>107.426335986764</v>
+        <v>123.5220883746394</v>
       </c>
       <c r="AC3" t="n">
-        <v>97.17371725402403</v>
+        <v>111.7333136245361</v>
       </c>
       <c r="AD3" t="n">
-        <v>78514.01271234328</v>
+        <v>90277.81435361139</v>
       </c>
       <c r="AE3" t="n">
-        <v>107426.335986764</v>
+        <v>123522.0883746394</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.808979562011413e-06</v>
+        <v>9.166657226544504e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.269675925925926</v>
       </c>
       <c r="AH3" t="n">
-        <v>97173.71725402403</v>
+        <v>111733.3136245361</v>
       </c>
     </row>
   </sheetData>
@@ -2689,28 +2689,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>69.31497399051879</v>
+        <v>90.24185897290027</v>
       </c>
       <c r="AB2" t="n">
-        <v>94.83980537462386</v>
+        <v>123.472892636511</v>
       </c>
       <c r="AC2" t="n">
-        <v>85.78842745819591</v>
+        <v>111.688813058608</v>
       </c>
       <c r="AD2" t="n">
-        <v>69314.97399051879</v>
+        <v>90241.85897290027</v>
       </c>
       <c r="AE2" t="n">
-        <v>94839.80537462386</v>
+        <v>123472.892636511</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.929083251095341e-06</v>
+        <v>1.049765736928301e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.559027777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>85788.42745819592</v>
+        <v>111688.8130586081</v>
       </c>
     </row>
   </sheetData>
@@ -2986,28 +2986,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>71.86184162660695</v>
+        <v>93.63484151841513</v>
       </c>
       <c r="AB2" t="n">
-        <v>98.32454203418807</v>
+        <v>128.1153210431076</v>
       </c>
       <c r="AC2" t="n">
-        <v>88.94058574183104</v>
+        <v>115.8881746137697</v>
       </c>
       <c r="AD2" t="n">
-        <v>71861.84162660694</v>
+        <v>93634.84151841512</v>
       </c>
       <c r="AE2" t="n">
-        <v>98324.54203418807</v>
+        <v>128115.3210431076</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.987329096355731e-06</v>
+        <v>1.012600234318083e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.365162037037038</v>
       </c>
       <c r="AH2" t="n">
-        <v>88940.58574183105</v>
+        <v>115888.1746137697</v>
       </c>
     </row>
     <row r="3">
@@ -3092,28 +3092,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>72.16567848276902</v>
+        <v>93.93867837457722</v>
       </c>
       <c r="AB3" t="n">
-        <v>98.74026502512488</v>
+        <v>128.5310440340444</v>
       </c>
       <c r="AC3" t="n">
-        <v>89.31663271398385</v>
+        <v>116.2642215859225</v>
       </c>
       <c r="AD3" t="n">
-        <v>72165.67848276903</v>
+        <v>93938.67837457723</v>
       </c>
       <c r="AE3" t="n">
-        <v>98740.26502512489</v>
+        <v>128531.0440340444</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.987097108677835e-06</v>
+        <v>1.012553132798921e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.365162037037038</v>
       </c>
       <c r="AH3" t="n">
-        <v>89316.63271398385</v>
+        <v>116264.2215859225</v>
       </c>
     </row>
   </sheetData>
@@ -3389,28 +3389,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>67.90202812281852</v>
+        <v>87.99500471680523</v>
       </c>
       <c r="AB2" t="n">
-        <v>92.906550503665</v>
+        <v>120.3986475191094</v>
       </c>
       <c r="AC2" t="n">
-        <v>84.03967971878049</v>
+        <v>108.9079695804801</v>
       </c>
       <c r="AD2" t="n">
-        <v>67902.02812281852</v>
+        <v>87995.00471680523</v>
       </c>
       <c r="AE2" t="n">
-        <v>92906.550503665</v>
+        <v>120398.6475191094</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.747912070907325e-06</v>
+        <v>1.057267280053813e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.836805555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>84039.67971878049</v>
+        <v>108907.9695804801</v>
       </c>
     </row>
   </sheetData>
@@ -3686,28 +3686,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>111.1222092617316</v>
+        <v>134.7914185708944</v>
       </c>
       <c r="AB2" t="n">
-        <v>152.0423090777172</v>
+        <v>184.4275654663154</v>
       </c>
       <c r="AC2" t="n">
-        <v>137.5316044921023</v>
+        <v>166.8260574639759</v>
       </c>
       <c r="AD2" t="n">
-        <v>111122.2092617316</v>
+        <v>134791.4185708944</v>
       </c>
       <c r="AE2" t="n">
-        <v>152042.3090777172</v>
+        <v>184427.5654663154</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.815316750184642e-06</v>
+        <v>7.21386229553724e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.08275462962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>137531.6044921023</v>
+        <v>166826.0574639759</v>
       </c>
     </row>
     <row r="3">
@@ -3792,28 +3792,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>79.38621180079753</v>
+        <v>91.26353163694026</v>
       </c>
       <c r="AB3" t="n">
-        <v>108.6197172582946</v>
+        <v>124.8707902484667</v>
       </c>
       <c r="AC3" t="n">
-        <v>98.25320389192126</v>
+        <v>112.9532972844407</v>
       </c>
       <c r="AD3" t="n">
-        <v>79386.21180079752</v>
+        <v>91263.53163694026</v>
       </c>
       <c r="AE3" t="n">
-        <v>108619.7172582946</v>
+        <v>124870.7902484667</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.788986532442256e-06</v>
+        <v>9.054841745065838e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.252314814814815</v>
       </c>
       <c r="AH3" t="n">
-        <v>98253.20389192126</v>
+        <v>112953.2972844407</v>
       </c>
     </row>
     <row r="4">
@@ -3898,28 +3898,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>79.59561548992313</v>
+        <v>91.47293532606585</v>
       </c>
       <c r="AB4" t="n">
-        <v>108.9062326239948</v>
+        <v>125.157305614167</v>
       </c>
       <c r="AC4" t="n">
-        <v>98.51237463324604</v>
+        <v>113.2124680257655</v>
       </c>
       <c r="AD4" t="n">
-        <v>79595.61548992313</v>
+        <v>91472.93532606585</v>
       </c>
       <c r="AE4" t="n">
-        <v>108906.2326239948</v>
+        <v>125157.305614167</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.786832872229344e-06</v>
+        <v>9.050769682580704e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.255208333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>98512.37463324604</v>
+        <v>113212.4680257655</v>
       </c>
     </row>
   </sheetData>
@@ -4195,28 +4195,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>77.35284501723984</v>
+        <v>96.86677164081654</v>
       </c>
       <c r="AB2" t="n">
-        <v>105.837575119221</v>
+        <v>132.537390419269</v>
       </c>
       <c r="AC2" t="n">
-        <v>95.73658549383897</v>
+        <v>119.8882078950851</v>
       </c>
       <c r="AD2" t="n">
-        <v>77352.84501723984</v>
+        <v>96866.77164081654</v>
       </c>
       <c r="AE2" t="n">
-        <v>105837.575119221</v>
+        <v>132537.390419269</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.574574458208626e-06</v>
+        <v>1.048751728998242e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.076967592592593</v>
       </c>
       <c r="AH2" t="n">
-        <v>95736.58549383897</v>
+        <v>119888.2078950851</v>
       </c>
     </row>
   </sheetData>
@@ -4492,28 +4492,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>80.8014772253115</v>
+        <v>103.5920585586252</v>
       </c>
       <c r="AB2" t="n">
-        <v>110.5561458492176</v>
+        <v>141.7392246789291</v>
       </c>
       <c r="AC2" t="n">
-        <v>100.0048224559218</v>
+        <v>128.2118320078615</v>
       </c>
       <c r="AD2" t="n">
-        <v>80801.47722531151</v>
+        <v>103592.0585586252</v>
       </c>
       <c r="AE2" t="n">
-        <v>110556.1458492176</v>
+        <v>141739.2246789291</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.550086696760553e-06</v>
+        <v>8.918107043752016e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.559027777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>100004.8224559218</v>
+        <v>128211.8320078616</v>
       </c>
     </row>
     <row r="3">
@@ -4598,28 +4598,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>75.2278026056201</v>
+        <v>86.62318278082799</v>
       </c>
       <c r="AB3" t="n">
-        <v>102.9299983413897</v>
+        <v>118.5216602257938</v>
       </c>
       <c r="AC3" t="n">
-        <v>93.1065037628733</v>
+        <v>107.2101193200698</v>
       </c>
       <c r="AD3" t="n">
-        <v>75227.80260562011</v>
+        <v>86623.18278082799</v>
       </c>
       <c r="AE3" t="n">
-        <v>102929.9983413897</v>
+        <v>118521.6602257938</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.924344006193186e-06</v>
+        <v>9.651646198028593e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.289930555555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>93106.5037628733</v>
+        <v>107210.1193200698</v>
       </c>
     </row>
   </sheetData>
@@ -4895,28 +4895,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>89.88773436802934</v>
+        <v>113.1794889000382</v>
       </c>
       <c r="AB2" t="n">
-        <v>122.9883637292519</v>
+        <v>154.8571698396188</v>
       </c>
       <c r="AC2" t="n">
-        <v>111.250526910217</v>
+        <v>140.0778188935709</v>
       </c>
       <c r="AD2" t="n">
-        <v>89887.73436802934</v>
+        <v>113179.4889000382</v>
       </c>
       <c r="AE2" t="n">
-        <v>122988.3637292519</v>
+        <v>154857.1698396188</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.151920689900961e-06</v>
+        <v>7.982910703527773e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.822337962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>111250.526910217</v>
+        <v>140077.8188935709</v>
       </c>
     </row>
     <row r="3">
@@ -5001,28 +5001,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>77.35955908879551</v>
+        <v>89.00552586335095</v>
       </c>
       <c r="AB3" t="n">
-        <v>105.8467616081273</v>
+        <v>121.7812871328592</v>
       </c>
       <c r="AC3" t="n">
-        <v>95.74489523713741</v>
+        <v>110.158652010041</v>
       </c>
       <c r="AD3" t="n">
-        <v>77359.5590887955</v>
+        <v>89005.52586335095</v>
       </c>
       <c r="AE3" t="n">
-        <v>105846.7616081273</v>
+        <v>121781.2871328592</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.85158585384731e-06</v>
+        <v>9.328159070082209e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.269675925925926</v>
       </c>
       <c r="AH3" t="n">
-        <v>95744.89523713742</v>
+        <v>110158.652010041</v>
       </c>
     </row>
   </sheetData>
@@ -5298,28 +5298,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>122.1948094309146</v>
+        <v>146.2952689636328</v>
       </c>
       <c r="AB2" t="n">
-        <v>167.1923291178294</v>
+        <v>200.167641087713</v>
       </c>
       <c r="AC2" t="n">
-        <v>151.2357278827778</v>
+        <v>181.0639223594072</v>
       </c>
       <c r="AD2" t="n">
-        <v>122194.8094309146</v>
+        <v>146295.2689636328</v>
       </c>
       <c r="AE2" t="n">
-        <v>167192.3291178294</v>
+        <v>200167.641087713</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.490376175295884e-06</v>
+        <v>6.502306082024097e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.389467592592593</v>
       </c>
       <c r="AH2" t="n">
-        <v>151235.7278827778</v>
+        <v>181063.9223594072</v>
       </c>
     </row>
     <row r="3">
@@ -5404,28 +5404,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>82.4949731569799</v>
+        <v>94.58791810490033</v>
       </c>
       <c r="AB3" t="n">
-        <v>112.8732616946927</v>
+        <v>129.4193624755075</v>
       </c>
       <c r="AC3" t="n">
-        <v>102.100796017198</v>
+        <v>117.0677601620954</v>
       </c>
       <c r="AD3" t="n">
-        <v>82494.97315697989</v>
+        <v>94587.91810490032</v>
       </c>
       <c r="AE3" t="n">
-        <v>112873.2616946927</v>
+        <v>129419.3624755075</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.659358122164428e-06</v>
+        <v>8.680030785939529e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.287037037037037</v>
       </c>
       <c r="AH3" t="n">
-        <v>102100.796017198</v>
+        <v>117067.7601620954</v>
       </c>
     </row>
     <row r="4">
@@ -5510,28 +5510,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>81.63647049736583</v>
+        <v>93.72941544528625</v>
       </c>
       <c r="AB4" t="n">
-        <v>111.698620481345</v>
+        <v>128.2447212621598</v>
       </c>
       <c r="AC4" t="n">
-        <v>101.0382609126326</v>
+        <v>116.00522505753</v>
       </c>
       <c r="AD4" t="n">
-        <v>81636.47049736584</v>
+        <v>93729.41544528626</v>
       </c>
       <c r="AE4" t="n">
-        <v>111698.620481345</v>
+        <v>128244.7212621598</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.706896650752778e-06</v>
+        <v>8.768591459072218e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.255208333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>101038.2609126326</v>
+        <v>116005.22505753</v>
       </c>
     </row>
   </sheetData>
@@ -5807,28 +5807,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>74.03720764965084</v>
+        <v>96.10758242727641</v>
       </c>
       <c r="AB2" t="n">
-        <v>101.3009737972909</v>
+        <v>131.4986342442397</v>
       </c>
       <c r="AC2" t="n">
-        <v>91.63295103491251</v>
+        <v>118.9485891514967</v>
       </c>
       <c r="AD2" t="n">
-        <v>74037.20764965084</v>
+        <v>96107.58242727641</v>
       </c>
       <c r="AE2" t="n">
-        <v>101300.9737972909</v>
+        <v>131498.6342442397</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.889402606763845e-06</v>
+        <v>9.800794592613974e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.388310185185186</v>
       </c>
       <c r="AH2" t="n">
-        <v>91632.9510349125</v>
+        <v>118948.5891514967</v>
       </c>
     </row>
     <row r="3">
@@ -5913,28 +5913,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>72.86457699419007</v>
+        <v>94.93495177181566</v>
       </c>
       <c r="AB3" t="n">
-        <v>99.69652880167691</v>
+        <v>129.8941892486257</v>
       </c>
       <c r="AC3" t="n">
-        <v>90.18163201782669</v>
+        <v>117.4972701344109</v>
       </c>
       <c r="AD3" t="n">
-        <v>72864.57699419008</v>
+        <v>94934.95177181566</v>
       </c>
       <c r="AE3" t="n">
-        <v>99696.5288016769</v>
+        <v>129894.1892486257</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.987221585274062e-06</v>
+        <v>9.996872476303017e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.32175925925926</v>
       </c>
       <c r="AH3" t="n">
-        <v>90181.63201782669</v>
+        <v>117497.2701344109</v>
       </c>
     </row>
   </sheetData>
@@ -6210,28 +6210,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>70.17587071082359</v>
+        <v>91.29577652397519</v>
       </c>
       <c r="AB2" t="n">
-        <v>96.0177222474271</v>
+        <v>124.9149091254519</v>
       </c>
       <c r="AC2" t="n">
-        <v>86.8539255978759</v>
+        <v>112.9932055177277</v>
       </c>
       <c r="AD2" t="n">
-        <v>70175.87071082358</v>
+        <v>91295.77652397519</v>
       </c>
       <c r="AE2" t="n">
-        <v>96017.7222474271</v>
+        <v>124914.9091254519</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.959086417984511e-06</v>
+        <v>1.037471891735809e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.480902777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>86853.9255978759</v>
+        <v>112993.2055177277</v>
       </c>
     </row>
   </sheetData>
@@ -10192,28 +10192,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>68.51868312489675</v>
+        <v>89.04945353068446</v>
       </c>
       <c r="AB2" t="n">
-        <v>93.75028508240672</v>
+        <v>121.8413909052568</v>
       </c>
       <c r="AC2" t="n">
-        <v>84.80288945351629</v>
+        <v>110.2130195627571</v>
       </c>
       <c r="AD2" t="n">
-        <v>68518.68312489675</v>
+        <v>89049.45353068446</v>
       </c>
       <c r="AE2" t="n">
-        <v>93750.28508240671</v>
+        <v>121841.3909052568</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.860322915546132e-06</v>
+        <v>1.05656410133273e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.674768518518519</v>
       </c>
       <c r="AH2" t="n">
-        <v>84802.88945351628</v>
+        <v>110213.0195627571</v>
       </c>
     </row>
   </sheetData>
@@ -10489,28 +10489,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>77.69407284343428</v>
+        <v>96.80416838008681</v>
       </c>
       <c r="AB2" t="n">
-        <v>106.3044580849292</v>
+        <v>132.4517338760777</v>
       </c>
       <c r="AC2" t="n">
-        <v>96.15890980457451</v>
+        <v>119.8107262921562</v>
       </c>
       <c r="AD2" t="n">
-        <v>77694.07284343429</v>
+        <v>96804.1683800868</v>
       </c>
       <c r="AE2" t="n">
-        <v>106304.4580849292</v>
+        <v>132451.7338760777</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.227892902076781e-06</v>
+        <v>1.005615726647741e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.534143518518518</v>
       </c>
       <c r="AH2" t="n">
-        <v>96158.9098045745</v>
+        <v>119810.7262921562</v>
       </c>
     </row>
   </sheetData>
@@ -10786,28 +10786,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>85.27153011577029</v>
+        <v>108.3180427180771</v>
       </c>
       <c r="AB2" t="n">
-        <v>116.6722694187557</v>
+        <v>148.2055247015942</v>
       </c>
       <c r="AC2" t="n">
-        <v>105.5372317760185</v>
+        <v>134.0609974318747</v>
       </c>
       <c r="AD2" t="n">
-        <v>85271.53011577029</v>
+        <v>108318.0427180771</v>
       </c>
       <c r="AE2" t="n">
-        <v>116672.2694187557</v>
+        <v>148205.5247015942</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.347029273206581e-06</v>
+        <v>8.435750220560832e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.686342592592593</v>
       </c>
       <c r="AH2" t="n">
-        <v>105537.2317760185</v>
+        <v>134060.9974318747</v>
       </c>
     </row>
     <row r="3">
@@ -10892,28 +10892,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>76.24271603545881</v>
+        <v>87.76606184516326</v>
       </c>
       <c r="AB3" t="n">
-        <v>104.3186476709148</v>
+        <v>120.0853977818824</v>
       </c>
       <c r="AC3" t="n">
-        <v>94.36262234937054</v>
+        <v>108.6246159585252</v>
       </c>
       <c r="AD3" t="n">
-        <v>76242.71603545881</v>
+        <v>87766.06184516326</v>
       </c>
       <c r="AE3" t="n">
-        <v>104318.6476709148</v>
+        <v>120085.3977818824</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.899852456684354e-06</v>
+        <v>9.508546836101853e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.269675925925926</v>
       </c>
       <c r="AH3" t="n">
-        <v>94362.62234937053</v>
+        <v>108624.6159585252</v>
       </c>
     </row>
   </sheetData>
@@ -11189,28 +11189,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>116.0586438942939</v>
+        <v>139.9470539565219</v>
       </c>
       <c r="AB2" t="n">
-        <v>158.7965567221112</v>
+        <v>191.4817332515079</v>
       </c>
       <c r="AC2" t="n">
-        <v>143.6412362209637</v>
+        <v>173.2069853763386</v>
       </c>
       <c r="AD2" t="n">
-        <v>116058.6438942939</v>
+        <v>139947.0539565219</v>
       </c>
       <c r="AE2" t="n">
-        <v>158796.5567221112</v>
+        <v>191481.7332515079</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.66134206766931e-06</v>
+        <v>6.870113804379908e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.21875</v>
       </c>
       <c r="AH2" t="n">
-        <v>143641.2362209637</v>
+        <v>173206.9853763386</v>
       </c>
     </row>
     <row r="3">
@@ -11295,28 +11295,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>80.73826072724178</v>
+        <v>92.72518093991714</v>
       </c>
       <c r="AB3" t="n">
-        <v>110.4696502476435</v>
+        <v>126.8706833082149</v>
       </c>
       <c r="AC3" t="n">
-        <v>99.92658187316462</v>
+        <v>114.7623233574347</v>
       </c>
       <c r="AD3" t="n">
-        <v>80738.26072724178</v>
+        <v>92725.18093991713</v>
       </c>
       <c r="AE3" t="n">
-        <v>110469.6502476435</v>
+        <v>126870.6833082149</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.732863246034043e-06</v>
+        <v>8.880707816934176e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.263888888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>99926.58187316463</v>
+        <v>114762.3233574347</v>
       </c>
     </row>
     <row r="4">
@@ -11401,28 +11401,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>80.56700620435912</v>
+        <v>92.55392641703448</v>
       </c>
       <c r="AB4" t="n">
-        <v>110.2353322542193</v>
+        <v>126.6363653147906</v>
       </c>
       <c r="AC4" t="n">
-        <v>99.71462686016532</v>
+        <v>114.5503683444354</v>
       </c>
       <c r="AD4" t="n">
-        <v>80567.00620435912</v>
+        <v>92553.92641703447</v>
       </c>
       <c r="AE4" t="n">
-        <v>110235.3322542193</v>
+        <v>126636.3653147906</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.751812634213753e-06</v>
+        <v>8.916264301663516e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.249421296296296</v>
       </c>
       <c r="AH4" t="n">
-        <v>99714.62686016533</v>
+        <v>114550.3683444354</v>
       </c>
     </row>
   </sheetData>
@@ -11698,28 +11698,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>89.34127637372168</v>
+        <v>116.8218552634215</v>
       </c>
       <c r="AB2" t="n">
-        <v>122.2406757934153</v>
+        <v>159.8408161878604</v>
       </c>
       <c r="AC2" t="n">
-        <v>110.5741972615898</v>
+        <v>144.5858330289295</v>
       </c>
       <c r="AD2" t="n">
-        <v>89341.27637372169</v>
+        <v>116821.8552634215</v>
       </c>
       <c r="AE2" t="n">
-        <v>122240.6757934153</v>
+        <v>159840.8161878604</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.57921290901259e-06</v>
+        <v>8.951339860649092e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.543981481481482</v>
       </c>
       <c r="AH2" t="n">
-        <v>110574.1972615898</v>
+        <v>144585.8330289295</v>
       </c>
     </row>
   </sheetData>
@@ -11995,28 +11995,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>71.22619978799689</v>
+        <v>92.68350153609023</v>
       </c>
       <c r="AB2" t="n">
-        <v>97.45482882806344</v>
+        <v>126.8136557091334</v>
       </c>
       <c r="AC2" t="n">
-        <v>88.15387674344852</v>
+        <v>114.7107383923708</v>
       </c>
       <c r="AD2" t="n">
-        <v>71226.19978799688</v>
+        <v>92683.50153609023</v>
       </c>
       <c r="AE2" t="n">
-        <v>97454.82882806344</v>
+        <v>126813.6557091334</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.96516792834893e-06</v>
+        <v>1.022468818163276e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.425925925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>88153.87674344852</v>
+        <v>114710.7383923708</v>
       </c>
     </row>
   </sheetData>
@@ -12292,28 +12292,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>76.67407565851944</v>
+        <v>99.02609811547404</v>
       </c>
       <c r="AB2" t="n">
-        <v>104.9088529374295</v>
+        <v>135.4918761646547</v>
       </c>
       <c r="AC2" t="n">
-        <v>94.89649925360759</v>
+        <v>122.5607216675788</v>
       </c>
       <c r="AD2" t="n">
-        <v>76674.07565851945</v>
+        <v>99026.09811547404</v>
       </c>
       <c r="AE2" t="n">
-        <v>104908.8529374295</v>
+        <v>135491.8761646547</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.76969502996773e-06</v>
+        <v>9.449644011421582e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.434606481481481</v>
       </c>
       <c r="AH2" t="n">
-        <v>94896.49925360759</v>
+        <v>122560.7216675788</v>
       </c>
     </row>
     <row r="3">
@@ -12398,28 +12398,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>74.39105062675765</v>
+        <v>96.74307308371223</v>
       </c>
       <c r="AB3" t="n">
-        <v>101.7851173690186</v>
+        <v>132.3681405962438</v>
       </c>
       <c r="AC3" t="n">
-        <v>92.07088862365447</v>
+        <v>119.7351110376257</v>
       </c>
       <c r="AD3" t="n">
-        <v>74391.05062675764</v>
+        <v>96743.07308371224</v>
       </c>
       <c r="AE3" t="n">
-        <v>101785.1173690186</v>
+        <v>132368.1405962438</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.932250674041153e-06</v>
+        <v>9.771696670740472e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.32175925925926</v>
       </c>
       <c r="AH3" t="n">
-        <v>92070.88862365446</v>
+        <v>119735.1110376257</v>
       </c>
     </row>
   </sheetData>
